--- a/test_refactor_output.xlsx
+++ b/test_refactor_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,28 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" ht="25" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Net Weight</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Gross Weight</t>
+        </is>
+      </c>
+    </row>
     <row r="2" ht="20" customHeight="1">
       <c r="B2" s="1" t="inlineStr">
         <is>
